--- a/Testing Spreadsheet example Tests.xlsx
+++ b/Testing Spreadsheet example Tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <workbookProtection workbookPassword="A6C2" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="100" windowWidth="16560" windowHeight="6350" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="16560" windowHeight="6345" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reqs" sheetId="5" r:id="rId1"/>
@@ -889,7 +889,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -899,7 +898,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -909,7 +907,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -974,7 +971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1071,11 +1067,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="63276544"/>
-        <c:axId val="63278080"/>
+        <c:axId val="111462272"/>
+        <c:axId val="111463808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63276544"/>
+        <c:axId val="111462272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1080,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63278080"/>
+        <c:crossAx val="111463808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1088,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63278080"/>
+        <c:axId val="111463808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1099,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63276544"/>
+        <c:crossAx val="111462272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1478,9 +1474,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1511,18 +1507,19 @@
   </sheetPr>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.81640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
@@ -1536,7 +1533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1553,7 +1550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -1568,7 +1565,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
@@ -1585,7 +1582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="65.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="65.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
@@ -1602,7 +1599,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1611,7 +1608,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1620,7 +1617,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1629,34 +1626,34 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
     </row>
   </sheetData>
@@ -1688,26 +1685,26 @@
       <selection activeCell="O2" sqref="O2:O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="32.453125" customWidth="1"/>
-    <col min="5" max="6" width="18.54296875" customWidth="1"/>
-    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" customWidth="1"/>
-    <col min="10" max="10" width="23.6328125" customWidth="1"/>
-    <col min="12" max="12" width="11.54296875" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" customWidth="1"/>
-    <col min="15" max="15" width="41.81640625" customWidth="1"/>
-    <col min="16" max="16" width="16.7265625" customWidth="1"/>
-    <col min="20" max="20" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" customWidth="1"/>
+    <col min="15" max="15" width="41.85546875" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="28" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" ht="27.95" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>8</v>
       </c>
@@ -1794,7 +1791,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="57" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1828,7 +1825,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" ht="56.1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -1863,7 +1860,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" ht="56.1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1895,7 +1892,7 @@
       <c r="O5" s="3"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:26" ht="70" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" ht="69.95" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +1938,7 @@
       </c>
       <c r="P6" s="10"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>100</v>
       </c>
@@ -1974,7 +1971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="3"/>
@@ -1999,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2024,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
       <c r="G10" s="10"/>
@@ -2045,7 +2042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
       <c r="G11" s="10"/>
@@ -2059,7 +2056,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
       <c r="G12" s="10"/>
@@ -2073,7 +2070,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
       <c r="G13" s="10"/>
@@ -2087,7 +2084,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
       <c r="G14" s="10"/>
@@ -2101,7 +2098,7 @@
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
       <c r="G15" s="10"/>
@@ -2115,7 +2112,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
       <c r="G16" s="10"/>
@@ -2129,7 +2126,7 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E17" s="10"/>
       <c r="F17" s="11"/>
       <c r="G17" s="10"/>
@@ -2143,7 +2140,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E18" s="10"/>
       <c r="F18" s="11"/>
       <c r="G18" s="10"/>
@@ -2157,7 +2154,7 @@
       <c r="O18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E19" s="10"/>
       <c r="F19" s="11"/>
       <c r="G19" s="10"/>
@@ -2171,7 +2168,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E20" s="10"/>
       <c r="F20" s="11"/>
       <c r="G20" s="10"/>
@@ -2185,7 +2182,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
       <c r="G21" s="10"/>
@@ -2199,7 +2196,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E22" s="10"/>
       <c r="F22" s="11"/>
       <c r="G22" s="10"/>
@@ -2213,7 +2210,7 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E23" s="10"/>
       <c r="F23" s="11"/>
       <c r="G23" s="10"/>
@@ -2227,7 +2224,7 @@
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E24" s="10"/>
       <c r="F24" s="11"/>
       <c r="G24" s="10"/>
@@ -2241,7 +2238,7 @@
       <c r="O24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
       <c r="G25" s="10"/>
@@ -2258,7 +2255,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
       <c r="G26" s="10"/>
@@ -2279,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E27" s="10"/>
       <c r="F27" s="11"/>
       <c r="G27" s="10"/>
@@ -2300,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
       <c r="G28" s="10"/>
@@ -2321,7 +2318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E29" s="10"/>
       <c r="F29" s="11"/>
       <c r="G29" s="10"/>
@@ -2342,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E30" s="10"/>
       <c r="F30" s="11"/>
       <c r="G30" s="10"/>
@@ -2363,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
       <c r="G31" s="10"/>
@@ -2377,7 +2374,7 @@
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="5:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:21" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
       <c r="G32" s="10"/>
@@ -2391,7 +2388,7 @@
       <c r="O32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E33" s="10"/>
       <c r="F33" s="11"/>
       <c r="G33" s="10"/>
@@ -2405,7 +2402,7 @@
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E34" s="10"/>
       <c r="F34" s="11"/>
       <c r="G34" s="10"/>
@@ -2419,7 +2416,7 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E35" s="10"/>
       <c r="F35" s="11"/>
       <c r="G35" s="10"/>
@@ -2433,7 +2430,7 @@
       <c r="O35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E36" s="10"/>
       <c r="F36" s="11"/>
       <c r="G36" s="10"/>
@@ -2447,7 +2444,7 @@
       <c r="O36" s="10"/>
       <c r="P36" s="10"/>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E37" s="10"/>
       <c r="F37" s="11"/>
       <c r="G37" s="10"/>
@@ -2461,7 +2458,7 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:16" ht="14.45" x14ac:dyDescent="0.35">
       <c r="E38" s="10"/>
       <c r="F38" s="11"/>
       <c r="G38" s="10"/>
@@ -2475,7 +2472,7 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E39" s="10"/>
       <c r="F39" s="11"/>
       <c r="G39" s="10"/>
@@ -2489,7 +2486,7 @@
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
       <c r="G40" s="10"/>
@@ -2503,7 +2500,7 @@
       <c r="O40" s="10"/>
       <c r="P40" s="10"/>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
       <c r="G41" s="10"/>
@@ -2517,7 +2514,7 @@
       <c r="O41" s="10"/>
       <c r="P41" s="10"/>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E42" s="10"/>
       <c r="F42" s="11"/>
       <c r="G42" s="10"/>
@@ -2531,7 +2528,7 @@
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
       <c r="G43" s="10"/>
@@ -2545,7 +2542,7 @@
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
     </row>
-    <row r="44" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
       <c r="G44" s="10"/>
@@ -2559,7 +2556,7 @@
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
     </row>
-    <row r="45" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="10"/>
@@ -2573,7 +2570,7 @@
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
     </row>
-    <row r="46" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E46" s="10"/>
       <c r="F46" s="11"/>
       <c r="G46" s="10"/>
@@ -2587,7 +2584,7 @@
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
     </row>
-    <row r="47" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E47" s="10"/>
       <c r="F47" s="11"/>
       <c r="G47" s="10"/>
@@ -2601,7 +2598,7 @@
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
     </row>
-    <row r="48" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E48" s="10"/>
       <c r="F48" s="11"/>
       <c r="G48" s="10"/>
@@ -2615,7 +2612,7 @@
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
     </row>
-    <row r="49" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E49" s="10"/>
       <c r="F49" s="11"/>
       <c r="G49" s="10"/>
@@ -2629,7 +2626,7 @@
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
     </row>
-    <row r="50" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E50" s="10"/>
       <c r="F50" s="11"/>
       <c r="G50" s="10"/>
@@ -2643,7 +2640,7 @@
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
     </row>
-    <row r="51" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E51" s="10"/>
       <c r="F51" s="11"/>
       <c r="G51" s="10"/>
@@ -2657,7 +2654,7 @@
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
     </row>
-    <row r="52" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E52" s="10"/>
       <c r="F52" s="11"/>
       <c r="G52" s="10"/>
@@ -2671,7 +2668,7 @@
       <c r="O52" s="10"/>
       <c r="P52" s="10"/>
     </row>
-    <row r="53" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E53" s="10"/>
       <c r="F53" s="11"/>
       <c r="G53" s="10"/>
@@ -2685,7 +2682,7 @@
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
     </row>
-    <row r="54" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E54" s="10"/>
       <c r="F54" s="11"/>
       <c r="G54" s="10"/>
@@ -2699,7 +2696,7 @@
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
     </row>
-    <row r="55" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E55" s="10"/>
       <c r="F55" s="11"/>
       <c r="G55" s="10"/>
@@ -2713,7 +2710,7 @@
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
     </row>
-    <row r="56" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E56" s="10"/>
       <c r="F56" s="11"/>
       <c r="G56" s="10"/>
@@ -2727,7 +2724,7 @@
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
     </row>
-    <row r="57" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E57" s="10"/>
       <c r="F57" s="11"/>
       <c r="G57" s="10"/>
@@ -2741,7 +2738,7 @@
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
     </row>
-    <row r="58" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E58" s="10"/>
       <c r="F58" s="11"/>
       <c r="G58" s="10"/>
@@ -2755,7 +2752,7 @@
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
     </row>
-    <row r="59" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E59" s="10"/>
       <c r="F59" s="11"/>
       <c r="G59" s="10"/>
@@ -2769,7 +2766,7 @@
       <c r="O59" s="10"/>
       <c r="P59" s="10"/>
     </row>
-    <row r="60" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E60" s="10"/>
       <c r="F60" s="11"/>
       <c r="G60" s="10"/>
@@ -2783,7 +2780,7 @@
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
     </row>
-    <row r="61" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E61" s="10"/>
       <c r="F61" s="11"/>
       <c r="G61" s="10"/>
@@ -2797,7 +2794,7 @@
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
     </row>
-    <row r="62" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E62" s="10"/>
       <c r="F62" s="11"/>
       <c r="G62" s="10"/>
@@ -2811,7 +2808,7 @@
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
     </row>
-    <row r="63" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E63" s="10"/>
       <c r="F63" s="11"/>
       <c r="G63" s="10"/>
@@ -2825,7 +2822,7 @@
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
     </row>
-    <row r="64" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E64" s="10"/>
       <c r="F64" s="11"/>
       <c r="G64" s="10"/>
@@ -2839,7 +2836,7 @@
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
     </row>
-    <row r="65" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E65" s="10"/>
       <c r="F65" s="11"/>
       <c r="G65" s="10"/>
@@ -2853,7 +2850,7 @@
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
     </row>
-    <row r="66" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E66" s="10"/>
       <c r="F66" s="11"/>
       <c r="G66" s="10"/>
@@ -2867,7 +2864,7 @@
       <c r="O66" s="10"/>
       <c r="P66" s="10"/>
     </row>
-    <row r="67" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E67" s="10"/>
       <c r="F67" s="11"/>
       <c r="G67" s="10"/>
@@ -2881,7 +2878,7 @@
       <c r="O67" s="10"/>
       <c r="P67" s="10"/>
     </row>
-    <row r="68" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E68" s="10"/>
       <c r="F68" s="11"/>
       <c r="G68" s="10"/>
@@ -2895,7 +2892,7 @@
       <c r="O68" s="10"/>
       <c r="P68" s="10"/>
     </row>
-    <row r="69" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E69" s="10"/>
       <c r="F69" s="11"/>
       <c r="G69" s="10"/>
@@ -2909,7 +2906,7 @@
       <c r="O69" s="10"/>
       <c r="P69" s="10"/>
     </row>
-    <row r="70" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E70" s="10"/>
       <c r="F70" s="11"/>
       <c r="G70" s="10"/>
@@ -2923,7 +2920,7 @@
       <c r="O70" s="10"/>
       <c r="P70" s="10"/>
     </row>
-    <row r="71" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E71" s="10"/>
       <c r="F71" s="11"/>
       <c r="G71" s="10"/>
@@ -2937,7 +2934,7 @@
       <c r="O71" s="10"/>
       <c r="P71" s="10"/>
     </row>
-    <row r="72" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E72" s="10"/>
       <c r="F72" s="11"/>
       <c r="G72" s="10"/>
@@ -2951,7 +2948,7 @@
       <c r="O72" s="10"/>
       <c r="P72" s="10"/>
     </row>
-    <row r="73" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E73" s="10"/>
       <c r="F73" s="11"/>
       <c r="G73" s="10"/>
@@ -2965,7 +2962,7 @@
       <c r="O73" s="10"/>
       <c r="P73" s="10"/>
     </row>
-    <row r="74" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E74" s="10"/>
       <c r="F74" s="11"/>
       <c r="G74" s="10"/>
@@ -2979,7 +2976,7 @@
       <c r="O74" s="10"/>
       <c r="P74" s="10"/>
     </row>
-    <row r="75" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E75" s="10"/>
       <c r="F75" s="11"/>
       <c r="G75" s="10"/>
@@ -2993,7 +2990,7 @@
       <c r="O75" s="10"/>
       <c r="P75" s="10"/>
     </row>
-    <row r="76" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E76" s="10"/>
       <c r="F76" s="11"/>
       <c r="G76" s="10"/>
@@ -3007,7 +3004,7 @@
       <c r="O76" s="10"/>
       <c r="P76" s="10"/>
     </row>
-    <row r="77" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E77" s="10"/>
       <c r="F77" s="11"/>
       <c r="G77" s="10"/>
@@ -3021,7 +3018,7 @@
       <c r="O77" s="10"/>
       <c r="P77" s="10"/>
     </row>
-    <row r="78" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E78" s="10"/>
       <c r="F78" s="11"/>
       <c r="G78" s="10"/>
@@ -3035,7 +3032,7 @@
       <c r="O78" s="10"/>
       <c r="P78" s="10"/>
     </row>
-    <row r="79" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E79" s="10"/>
       <c r="F79" s="11"/>
       <c r="G79" s="10"/>
@@ -3049,7 +3046,7 @@
       <c r="O79" s="10"/>
       <c r="P79" s="10"/>
     </row>
-    <row r="80" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E80" s="10"/>
       <c r="F80" s="11"/>
       <c r="G80" s="10"/>
@@ -3063,7 +3060,7 @@
       <c r="O80" s="10"/>
       <c r="P80" s="10"/>
     </row>
-    <row r="81" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E81" s="10"/>
       <c r="F81" s="11"/>
       <c r="G81" s="10"/>
@@ -3077,7 +3074,7 @@
       <c r="O81" s="10"/>
       <c r="P81" s="10"/>
     </row>
-    <row r="82" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E82" s="10"/>
       <c r="F82" s="11"/>
       <c r="G82" s="10"/>
@@ -3091,7 +3088,7 @@
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
     </row>
-    <row r="83" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E83" s="10"/>
       <c r="F83" s="11"/>
       <c r="G83" s="10"/>
@@ -3105,7 +3102,7 @@
       <c r="O83" s="10"/>
       <c r="P83" s="10"/>
     </row>
-    <row r="84" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E84" s="10"/>
       <c r="F84" s="11"/>
       <c r="G84" s="10"/>
@@ -3119,7 +3116,7 @@
       <c r="O84" s="10"/>
       <c r="P84" s="10"/>
     </row>
-    <row r="85" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E85" s="10"/>
       <c r="F85" s="11"/>
       <c r="G85" s="10"/>
@@ -3133,7 +3130,7 @@
       <c r="O85" s="10"/>
       <c r="P85" s="10"/>
     </row>
-    <row r="86" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E86" s="10"/>
       <c r="F86" s="11"/>
       <c r="G86" s="10"/>
@@ -3147,7 +3144,7 @@
       <c r="O86" s="10"/>
       <c r="P86" s="10"/>
     </row>
-    <row r="87" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E87" s="10"/>
       <c r="F87" s="11"/>
       <c r="G87" s="10"/>
@@ -3161,7 +3158,7 @@
       <c r="O87" s="10"/>
       <c r="P87" s="10"/>
     </row>
-    <row r="88" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E88" s="10"/>
       <c r="F88" s="11"/>
       <c r="G88" s="10"/>
@@ -3175,7 +3172,7 @@
       <c r="O88" s="10"/>
       <c r="P88" s="10"/>
     </row>
-    <row r="89" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E89" s="10"/>
       <c r="F89" s="11"/>
       <c r="G89" s="10"/>
@@ -3189,7 +3186,7 @@
       <c r="O89" s="10"/>
       <c r="P89" s="10"/>
     </row>
-    <row r="90" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E90" s="10"/>
       <c r="F90" s="11"/>
       <c r="G90" s="10"/>
@@ -3203,7 +3200,7 @@
       <c r="O90" s="10"/>
       <c r="P90" s="10"/>
     </row>
-    <row r="91" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E91" s="10"/>
       <c r="F91" s="11"/>
       <c r="G91" s="10"/>
@@ -3217,7 +3214,7 @@
       <c r="O91" s="10"/>
       <c r="P91" s="10"/>
     </row>
-    <row r="92" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E92" s="10"/>
       <c r="F92" s="11"/>
       <c r="G92" s="10"/>
@@ -3231,7 +3228,7 @@
       <c r="O92" s="10"/>
       <c r="P92" s="10"/>
     </row>
-    <row r="93" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E93" s="10"/>
       <c r="F93" s="11"/>
       <c r="G93" s="10"/>
@@ -3245,7 +3242,7 @@
       <c r="O93" s="10"/>
       <c r="P93" s="10"/>
     </row>
-    <row r="94" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E94" s="10"/>
       <c r="F94" s="11"/>
       <c r="G94" s="10"/>
@@ -3259,7 +3256,7 @@
       <c r="O94" s="10"/>
       <c r="P94" s="10"/>
     </row>
-    <row r="95" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E95" s="10"/>
       <c r="F95" s="11"/>
       <c r="G95" s="10"/>
@@ -3273,7 +3270,7 @@
       <c r="O95" s="10"/>
       <c r="P95" s="10"/>
     </row>
-    <row r="96" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E96" s="10"/>
       <c r="F96" s="11"/>
       <c r="G96" s="10"/>
@@ -3287,7 +3284,7 @@
       <c r="O96" s="10"/>
       <c r="P96" s="10"/>
     </row>
-    <row r="97" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E97" s="10"/>
       <c r="F97" s="11"/>
       <c r="G97" s="10"/>
@@ -3301,7 +3298,7 @@
       <c r="O97" s="10"/>
       <c r="P97" s="10"/>
     </row>
-    <row r="98" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E98" s="10"/>
       <c r="F98" s="11"/>
       <c r="G98" s="10"/>
@@ -3315,7 +3312,7 @@
       <c r="O98" s="10"/>
       <c r="P98" s="10"/>
     </row>
-    <row r="99" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E99" s="10"/>
       <c r="F99" s="11"/>
       <c r="G99" s="10"/>
@@ -3329,7 +3326,7 @@
       <c r="O99" s="10"/>
       <c r="P99" s="10"/>
     </row>
-    <row r="100" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E100" s="10"/>
       <c r="F100" s="11"/>
       <c r="G100" s="10"/>
@@ -3343,7 +3340,7 @@
       <c r="O100" s="10"/>
       <c r="P100" s="10"/>
     </row>
-    <row r="101" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E101" s="10"/>
       <c r="F101" s="11"/>
       <c r="G101" s="10"/>
@@ -3357,7 +3354,7 @@
       <c r="O101" s="10"/>
       <c r="P101" s="10"/>
     </row>
-    <row r="102" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E102" s="10"/>
       <c r="F102" s="11"/>
       <c r="G102" s="10"/>
@@ -3371,7 +3368,7 @@
       <c r="O102" s="10"/>
       <c r="P102" s="10"/>
     </row>
-    <row r="103" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E103" s="10"/>
       <c r="F103" s="11"/>
       <c r="G103" s="10"/>
@@ -3385,7 +3382,7 @@
       <c r="O103" s="10"/>
       <c r="P103" s="10"/>
     </row>
-    <row r="104" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E104" s="10"/>
       <c r="F104" s="11"/>
       <c r="G104" s="10"/>
@@ -3399,7 +3396,7 @@
       <c r="O104" s="10"/>
       <c r="P104" s="10"/>
     </row>
-    <row r="105" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E105" s="10"/>
       <c r="F105" s="11"/>
       <c r="G105" s="10"/>
@@ -3413,7 +3410,7 @@
       <c r="O105" s="10"/>
       <c r="P105" s="10"/>
     </row>
-    <row r="106" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E106" s="10"/>
       <c r="F106" s="11"/>
       <c r="G106" s="10"/>
@@ -3427,7 +3424,7 @@
       <c r="O106" s="10"/>
       <c r="P106" s="10"/>
     </row>
-    <row r="107" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E107" s="10"/>
       <c r="F107" s="11"/>
       <c r="G107" s="10"/>
@@ -3441,7 +3438,7 @@
       <c r="O107" s="10"/>
       <c r="P107" s="10"/>
     </row>
-    <row r="108" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E108" s="10"/>
       <c r="F108" s="11"/>
       <c r="G108" s="10"/>
@@ -3455,7 +3452,7 @@
       <c r="O108" s="10"/>
       <c r="P108" s="10"/>
     </row>
-    <row r="109" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E109" s="10"/>
       <c r="F109" s="11"/>
       <c r="G109" s="10"/>
@@ -3469,7 +3466,7 @@
       <c r="O109" s="10"/>
       <c r="P109" s="10"/>
     </row>
-    <row r="110" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E110" s="10"/>
       <c r="F110" s="11"/>
       <c r="G110" s="10"/>
@@ -3483,7 +3480,7 @@
       <c r="O110" s="10"/>
       <c r="P110" s="10"/>
     </row>
-    <row r="111" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E111" s="10"/>
       <c r="F111" s="11"/>
       <c r="G111" s="10"/>
@@ -3497,7 +3494,7 @@
       <c r="O111" s="10"/>
       <c r="P111" s="10"/>
     </row>
-    <row r="112" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E112" s="10"/>
       <c r="F112" s="11"/>
       <c r="G112" s="10"/>
@@ -3511,7 +3508,7 @@
       <c r="O112" s="10"/>
       <c r="P112" s="10"/>
     </row>
-    <row r="113" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E113" s="10"/>
       <c r="F113" s="11"/>
       <c r="G113" s="10"/>
@@ -3525,7 +3522,7 @@
       <c r="O113" s="10"/>
       <c r="P113" s="10"/>
     </row>
-    <row r="114" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E114" s="10"/>
       <c r="F114" s="11"/>
       <c r="G114" s="10"/>
@@ -3539,7 +3536,7 @@
       <c r="O114" s="10"/>
       <c r="P114" s="10"/>
     </row>
-    <row r="115" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E115" s="10"/>
       <c r="F115" s="11"/>
       <c r="G115" s="10"/>
@@ -3553,7 +3550,7 @@
       <c r="O115" s="10"/>
       <c r="P115" s="10"/>
     </row>
-    <row r="116" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E116" s="10"/>
       <c r="F116" s="11"/>
       <c r="G116" s="10"/>
@@ -3567,7 +3564,7 @@
       <c r="O116" s="10"/>
       <c r="P116" s="10"/>
     </row>
-    <row r="117" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E117" s="10"/>
       <c r="F117" s="11"/>
       <c r="G117" s="10"/>
@@ -3581,7 +3578,7 @@
       <c r="O117" s="10"/>
       <c r="P117" s="10"/>
     </row>
-    <row r="118" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E118" s="10"/>
       <c r="F118" s="11"/>
       <c r="G118" s="10"/>
@@ -3595,7 +3592,7 @@
       <c r="O118" s="10"/>
       <c r="P118" s="10"/>
     </row>
-    <row r="119" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E119" s="10"/>
       <c r="F119" s="11"/>
       <c r="G119" s="10"/>
@@ -3609,7 +3606,7 @@
       <c r="O119" s="10"/>
       <c r="P119" s="10"/>
     </row>
-    <row r="120" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E120" s="10"/>
       <c r="F120" s="11"/>
       <c r="G120" s="10"/>
@@ -3623,7 +3620,7 @@
       <c r="O120" s="10"/>
       <c r="P120" s="10"/>
     </row>
-    <row r="121" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E121" s="10"/>
       <c r="F121" s="11"/>
       <c r="G121" s="10"/>
@@ -3637,7 +3634,7 @@
       <c r="O121" s="10"/>
       <c r="P121" s="10"/>
     </row>
-    <row r="122" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E122" s="10"/>
       <c r="F122" s="11"/>
       <c r="G122" s="10"/>
@@ -3651,7 +3648,7 @@
       <c r="O122" s="10"/>
       <c r="P122" s="10"/>
     </row>
-    <row r="123" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E123" s="10"/>
       <c r="F123" s="11"/>
       <c r="G123" s="10"/>
@@ -3665,7 +3662,7 @@
       <c r="O123" s="10"/>
       <c r="P123" s="10"/>
     </row>
-    <row r="124" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E124" s="10"/>
       <c r="F124" s="11"/>
       <c r="G124" s="10"/>
@@ -3679,7 +3676,7 @@
       <c r="O124" s="10"/>
       <c r="P124" s="10"/>
     </row>
-    <row r="125" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E125" s="10"/>
       <c r="F125" s="11"/>
       <c r="G125" s="10"/>
@@ -3693,7 +3690,7 @@
       <c r="O125" s="10"/>
       <c r="P125" s="10"/>
     </row>
-    <row r="126" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E126" s="10"/>
       <c r="F126" s="11"/>
       <c r="G126" s="10"/>
@@ -3707,7 +3704,7 @@
       <c r="O126" s="10"/>
       <c r="P126" s="10"/>
     </row>
-    <row r="127" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E127" s="10"/>
       <c r="F127" s="11"/>
       <c r="G127" s="10"/>
@@ -3721,7 +3718,7 @@
       <c r="O127" s="10"/>
       <c r="P127" s="10"/>
     </row>
-    <row r="128" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E128" s="10"/>
       <c r="F128" s="11"/>
       <c r="G128" s="10"/>
@@ -3735,7 +3732,7 @@
       <c r="O128" s="10"/>
       <c r="P128" s="10"/>
     </row>
-    <row r="129" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E129" s="10"/>
       <c r="F129" s="11"/>
       <c r="G129" s="10"/>
@@ -3749,7 +3746,7 @@
       <c r="O129" s="10"/>
       <c r="P129" s="10"/>
     </row>
-    <row r="130" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E130" s="10"/>
       <c r="F130" s="11"/>
       <c r="G130" s="10"/>
@@ -3763,7 +3760,7 @@
       <c r="O130" s="10"/>
       <c r="P130" s="10"/>
     </row>
-    <row r="131" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E131" s="10"/>
       <c r="F131" s="11"/>
       <c r="G131" s="10"/>
@@ -3777,7 +3774,7 @@
       <c r="O131" s="10"/>
       <c r="P131" s="10"/>
     </row>
-    <row r="132" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E132" s="10"/>
       <c r="F132" s="11"/>
       <c r="G132" s="10"/>
@@ -3791,7 +3788,7 @@
       <c r="O132" s="10"/>
       <c r="P132" s="10"/>
     </row>
-    <row r="133" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E133" s="10"/>
       <c r="F133" s="11"/>
       <c r="G133" s="10"/>
@@ -3805,7 +3802,7 @@
       <c r="O133" s="10"/>
       <c r="P133" s="10"/>
     </row>
-    <row r="134" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E134" s="10"/>
       <c r="F134" s="11"/>
       <c r="G134" s="10"/>
@@ -3819,7 +3816,7 @@
       <c r="O134" s="10"/>
       <c r="P134" s="10"/>
     </row>
-    <row r="135" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E135" s="10"/>
       <c r="F135" s="11"/>
       <c r="G135" s="10"/>
@@ -3833,7 +3830,7 @@
       <c r="O135" s="10"/>
       <c r="P135" s="10"/>
     </row>
-    <row r="136" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E136" s="10"/>
       <c r="F136" s="11"/>
       <c r="G136" s="10"/>
@@ -3847,7 +3844,7 @@
       <c r="O136" s="10"/>
       <c r="P136" s="10"/>
     </row>
-    <row r="137" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E137" s="10"/>
       <c r="F137" s="11"/>
       <c r="G137" s="10"/>
@@ -3861,7 +3858,7 @@
       <c r="O137" s="10"/>
       <c r="P137" s="10"/>
     </row>
-    <row r="138" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E138" s="10"/>
       <c r="F138" s="11"/>
       <c r="G138" s="10"/>
@@ -3875,7 +3872,7 @@
       <c r="O138" s="10"/>
       <c r="P138" s="10"/>
     </row>
-    <row r="139" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E139" s="10"/>
       <c r="F139" s="11"/>
       <c r="G139" s="10"/>
@@ -3889,7 +3886,7 @@
       <c r="O139" s="10"/>
       <c r="P139" s="10"/>
     </row>
-    <row r="140" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E140" s="10"/>
       <c r="F140" s="11"/>
       <c r="G140" s="10"/>
@@ -3903,7 +3900,7 @@
       <c r="O140" s="10"/>
       <c r="P140" s="10"/>
     </row>
-    <row r="141" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E141" s="10"/>
       <c r="F141" s="11"/>
       <c r="G141" s="10"/>
@@ -3917,7 +3914,7 @@
       <c r="O141" s="10"/>
       <c r="P141" s="10"/>
     </row>
-    <row r="142" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E142" s="10"/>
       <c r="F142" s="11"/>
       <c r="G142" s="10"/>
@@ -3931,7 +3928,7 @@
       <c r="O142" s="10"/>
       <c r="P142" s="10"/>
     </row>
-    <row r="143" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E143" s="10"/>
       <c r="F143" s="11"/>
       <c r="G143" s="10"/>
@@ -3945,7 +3942,7 @@
       <c r="O143" s="10"/>
       <c r="P143" s="10"/>
     </row>
-    <row r="144" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E144" s="10"/>
       <c r="F144" s="11"/>
       <c r="G144" s="10"/>
@@ -3959,7 +3956,7 @@
       <c r="O144" s="10"/>
       <c r="P144" s="10"/>
     </row>
-    <row r="145" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E145" s="10"/>
       <c r="F145" s="11"/>
       <c r="G145" s="10"/>
@@ -3973,7 +3970,7 @@
       <c r="O145" s="10"/>
       <c r="P145" s="10"/>
     </row>
-    <row r="146" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E146" s="10"/>
       <c r="F146" s="11"/>
       <c r="G146" s="10"/>
@@ -3987,7 +3984,7 @@
       <c r="O146" s="10"/>
       <c r="P146" s="10"/>
     </row>
-    <row r="147" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E147" s="10"/>
       <c r="F147" s="11"/>
       <c r="G147" s="10"/>
@@ -4001,7 +3998,7 @@
       <c r="O147" s="10"/>
       <c r="P147" s="10"/>
     </row>
-    <row r="148" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E148" s="10"/>
       <c r="F148" s="11"/>
       <c r="G148" s="10"/>
@@ -4015,7 +4012,7 @@
       <c r="O148" s="10"/>
       <c r="P148" s="10"/>
     </row>
-    <row r="149" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E149" s="10"/>
       <c r="F149" s="11"/>
       <c r="G149" s="10"/>
@@ -4029,7 +4026,7 @@
       <c r="O149" s="10"/>
       <c r="P149" s="10"/>
     </row>
-    <row r="150" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E150" s="10"/>
       <c r="F150" s="11"/>
       <c r="G150" s="10"/>
@@ -4043,7 +4040,7 @@
       <c r="O150" s="10"/>
       <c r="P150" s="10"/>
     </row>
-    <row r="151" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E151" s="10"/>
       <c r="F151" s="11"/>
       <c r="G151" s="10"/>
@@ -4057,7 +4054,7 @@
       <c r="O151" s="10"/>
       <c r="P151" s="10"/>
     </row>
-    <row r="152" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E152" s="10"/>
       <c r="F152" s="11"/>
       <c r="G152" s="10"/>
@@ -4071,7 +4068,7 @@
       <c r="O152" s="10"/>
       <c r="P152" s="10"/>
     </row>
-    <row r="153" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E153" s="10"/>
       <c r="F153" s="11"/>
       <c r="G153" s="10"/>
@@ -4085,7 +4082,7 @@
       <c r="O153" s="10"/>
       <c r="P153" s="10"/>
     </row>
-    <row r="154" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E154" s="10"/>
       <c r="F154" s="11"/>
       <c r="G154" s="10"/>
@@ -4099,7 +4096,7 @@
       <c r="O154" s="10"/>
       <c r="P154" s="10"/>
     </row>
-    <row r="155" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E155" s="10"/>
       <c r="F155" s="11"/>
       <c r="G155" s="10"/>
@@ -4113,7 +4110,7 @@
       <c r="O155" s="10"/>
       <c r="P155" s="10"/>
     </row>
-    <row r="156" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E156" s="10"/>
       <c r="F156" s="11"/>
       <c r="G156" s="10"/>
@@ -4127,7 +4124,7 @@
       <c r="O156" s="10"/>
       <c r="P156" s="10"/>
     </row>
-    <row r="157" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E157" s="10"/>
       <c r="F157" s="11"/>
       <c r="G157" s="10"/>
@@ -4141,7 +4138,7 @@
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
     </row>
-    <row r="158" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E158" s="10"/>
       <c r="F158" s="11"/>
       <c r="G158" s="10"/>
@@ -4155,7 +4152,7 @@
       <c r="O158" s="10"/>
       <c r="P158" s="10"/>
     </row>
-    <row r="159" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E159" s="10"/>
       <c r="F159" s="11"/>
       <c r="G159" s="10"/>
@@ -4169,7 +4166,7 @@
       <c r="O159" s="10"/>
       <c r="P159" s="10"/>
     </row>
-    <row r="160" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
@@ -4183,7 +4180,7 @@
       <c r="O160" s="10"/>
       <c r="P160" s="10"/>
     </row>
-    <row r="161" spans="5:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="5:16" x14ac:dyDescent="0.25">
       <c r="E161" s="10"/>
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
@@ -4251,18 +4248,17 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="15.6328125" customWidth="1"/>
-    <col min="3" max="3" width="35.26953125" customWidth="1"/>
-    <col min="4" max="5" width="24.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.08984375" customWidth="1"/>
+    <col min="1" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="4" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>27</v>
       </c>
@@ -4288,7 +4284,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -4389,7 +4385,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>44</v>
       </c>
@@ -4414,7 +4410,7 @@
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>103</v>
       </c>
@@ -4437,7 +4433,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4452,7 +4448,7 @@
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4467,7 +4463,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4482,7 +4478,7 @@
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4497,7 +4493,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -4512,7 +4508,7 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -4527,7 +4523,7 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -4542,7 +4538,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -4557,7 +4553,7 @@
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -4572,7 +4568,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -4587,7 +4583,7 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -4602,7 +4598,7 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -4630,11 +4626,11 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4709,6 +4705,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C0A86D0A1DF85A4CBF24319CD50F658E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="18023c554c1e7c0fe5f8bda126dbbbe1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c64490b4aec6201516c3a874156f37b2">
     <xsd:element name="properties">
@@ -4822,29 +4833,35 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868CFFE9-38D5-4730-AACD-08C120EB2BBE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{674D8467-BC22-4C83-8C4F-37CAA9DC5A6D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FA9635-2351-44B3-AA3B-3124D98034AE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08FA9635-2351-44B3-AA3B-3124D98034AE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{674D8467-BC22-4C83-8C4F-37CAA9DC5A6D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{868CFFE9-38D5-4730-AACD-08C120EB2BBE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>